--- a/Mobile/Mobile_UAT/mobileUAT.xlsx
+++ b/Mobile/Mobile_UAT/mobileUAT.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\QA\Mobile_UAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F3AB82-A26D-4152-BDA7-1390A30859D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB922F6F-EAB5-4CC8-BAD7-29A97FCBF3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{D306577F-726B-460D-A4B8-43874F0773D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{D306577F-726B-460D-A4B8-43874F0773D9}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="18" r:id="rId1"/>
     <sheet name="test environment" sheetId="1" r:id="rId2"/>
-    <sheet name="loginRegistration" sheetId="4" r:id="rId3"/>
+    <sheet name="UAT" sheetId="4" r:id="rId3"/>
+    <sheet name="report" sheetId="19" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="124">
   <si>
     <t>Operating System</t>
   </si>
@@ -292,9 +293,6 @@
     <t>Reviews</t>
   </si>
   <si>
-    <t>2. Select the product for which you want to create a wiguk</t>
-  </si>
-  <si>
     <t>3. Go to the section with reviews</t>
   </si>
   <si>
@@ -320,6 +318,109 @@
   </si>
   <si>
     <t>5. Assess the response speed and usefulness of the information</t>
+  </si>
+  <si>
+    <t>1. The user can successfully complete the steps to select the required product(s)
+2. The user can successfully complete the steps to place an order.
+3. The order is placed correctly with the necessary and reliable information and confirmation</t>
+  </si>
+  <si>
+    <t>1. The user can successfully complete the steps to rent a scooter
+2. The order for the service is correctly completed with the necessary information and confirmation</t>
+  </si>
+  <si>
+    <t>1. The user can successfully complete the steps to register for scooter service
+2. The service order is correctly registered with the required information and confirmation</t>
+  </si>
+  <si>
+    <t>1. The user can successfully complete the steps to register for a scooter test drive
+2. The order for the service is correctly placed with the necessary information and confirmation</t>
+  </si>
+  <si>
+    <t>1. The user can successfully complete the steps for selecting a product
+2. The user can successfully complete the steps for submitting a review.
+3. The product review is correctly submitted with the required information
+4. The review is created and has all the required information</t>
+  </si>
+  <si>
+    <t>1. The user can successfully complete the steps to open the support chat
+2. The user can successfully write a message and attach files
+3. The user received a response from a bot or support agent</t>
+  </si>
+  <si>
+    <t>The scenario failed at point 6. The checkout and payment functionality is not implemented.</t>
+  </si>
+  <si>
+    <t>The scenario failed at point 3. The scooter rental functionality is not implemented.</t>
+  </si>
+  <si>
+    <t>The scenario failed at point 1. The functionality of scheduling a service appointment is not implemented.</t>
+  </si>
+  <si>
+    <t>The scenario failed at point 1. The functionality of scheduling a test-drive appointment is not implemented.</t>
+  </si>
+  <si>
+    <t>2. Select the product for which you want to create a review</t>
+  </si>
+  <si>
+    <t>The scenario failed at point 3. The review functionality is not implemented for all products.</t>
+  </si>
+  <si>
+    <t>The scenario failed at point 4. No response was received in the chat from either the bot or the technical support specialist</t>
+  </si>
+  <si>
+    <t>The object of testing</t>
+  </si>
+  <si>
+    <t>Actual result</t>
+  </si>
+  <si>
+    <t>Conclusion</t>
+  </si>
+  <si>
+    <t>1. The user cannot place an order</t>
+  </si>
+  <si>
+    <t>2. The user can use a promo code</t>
+  </si>
+  <si>
+    <t>3. The user can leave a comment on the order</t>
+  </si>
+  <si>
+    <t>4. The user cannot pay and complete the order</t>
+  </si>
+  <si>
+    <t>The main business goal of the site is not achieved. The buyer cannot make a purchase.</t>
+  </si>
+  <si>
+    <t>Scooter rental / Service / Test drive</t>
+  </si>
+  <si>
+    <t>1. User cannot arrange a test drive of a scooter</t>
+  </si>
+  <si>
+    <t>2. User cannot register for service equipment</t>
+  </si>
+  <si>
+    <t>3. User cannot register for scooter rental</t>
+  </si>
+  <si>
+    <t>Associated business goals not achieved</t>
+  </si>
+  <si>
+    <t>Not all products have a review field.</t>
+  </si>
+  <si>
+    <t>1. The user can enter the chat.</t>
+  </si>
+  <si>
+    <t>2. The user can write in the chat and attach a photo.</t>
+  </si>
+  <si>
+    <t>3. All the user's questions remain unanswered</t>
+  </si>
+  <si>
+    <t>Associated business goals are not achieved. User support does not work. The bot is not implemented and there are no live specialists.</t>
   </si>
 </sst>
 </file>
@@ -388,7 +489,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -419,6 +520,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -610,7 +723,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -681,6 +794,19 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -726,28 +852,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1128,32 +1252,32 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43"/>
     </row>
     <row r="8" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
@@ -1164,14 +1288,14 @@
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="44"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="49"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
@@ -1204,22 +1328,22 @@
       <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="35"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
@@ -1242,14 +1366,14 @@
       <c r="F16" s="22"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="46"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1441,9 +1565,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C34AE5-D21C-4E0E-990E-E65CA0FA7331}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,254 +1580,328 @@
     <col min="7" max="7" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="52" customFormat="1" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:7" s="34" customFormat="1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="33" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="51" t="s">
         <v>57</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>65</v>
       </c>
+      <c r="E2" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="46"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
       <c r="D3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="4"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="51" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="46"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
       <c r="D4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="4"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="51"/>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="46"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
       <c r="D5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="4"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="51"/>
       <c r="D6" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="E6" s="51"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="46"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="51"/>
       <c r="D7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="51"/>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" s="46"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="51"/>
       <c r="D8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="51"/>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="46"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="51"/>
       <c r="D9" s="5" t="s">
         <v>78</v>
       </c>
+      <c r="E9" s="51"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="51"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="51" t="s">
         <v>64</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
-      <c r="B11" s="46"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="51"/>
       <c r="C11"/>
       <c r="D11" s="5" t="s">
         <v>66</v>
       </c>
+      <c r="E11" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="52"/>
+      <c r="G11" s="51" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="46"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="51"/>
       <c r="C12"/>
       <c r="D12" s="5" t="s">
         <v>67</v>
       </c>
+      <c r="E12" s="51"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="51"/>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="46"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="51"/>
       <c r="C13"/>
       <c r="D13" s="5" t="s">
         <v>74</v>
       </c>
+      <c r="E13" s="51"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="51"/>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="46"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="51"/>
       <c r="C14"/>
       <c r="D14" s="5" t="s">
         <v>75</v>
       </c>
+      <c r="E14" s="51"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="51"/>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="46"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="51"/>
       <c r="C15"/>
       <c r="D15" s="5" t="s">
         <v>76</v>
       </c>
+      <c r="E15" s="51"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="51"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="47" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="51" t="s">
         <v>69</v>
       </c>
       <c r="C17"/>
       <c r="D17" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="46"/>
+      <c r="E17" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="55"/>
+      <c r="G17" s="51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="50"/>
+      <c r="B18" s="51"/>
       <c r="C18"/>
       <c r="D18" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
-      <c r="B19" s="46"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="51"/>
+    </row>
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="50"/>
+      <c r="B19" s="51"/>
       <c r="C19"/>
       <c r="D19" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
-      <c r="B20" s="46"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="51"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="50"/>
+      <c r="B20" s="51"/>
       <c r="C20"/>
       <c r="D20" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
-      <c r="B21" s="46"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="51"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="50"/>
+      <c r="B21" s="51"/>
       <c r="C21"/>
       <c r="D21" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="51"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="51"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="47" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="51" t="s">
         <v>73</v>
       </c>
       <c r="C23"/>
       <c r="D23" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
-      <c r="B24" s="46"/>
+      <c r="E23" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="55"/>
+      <c r="G23" s="51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="50"/>
+      <c r="B24" s="51"/>
       <c r="C24"/>
       <c r="D24" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="B25" s="46"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="51"/>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="50"/>
+      <c r="B25" s="51"/>
       <c r="C25"/>
       <c r="D25" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
-      <c r="B26" s="46"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="51"/>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="50"/>
+      <c r="B26" s="51"/>
       <c r="C26"/>
       <c r="D26" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
-      <c r="B27" s="46"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="51"/>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="50"/>
+      <c r="B27" s="51"/>
       <c r="C27"/>
       <c r="D27" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="51"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="51"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="47" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="50" t="s">
         <v>83</v>
       </c>
       <c r="B29"/>
@@ -1711,129 +1909,166 @@
       <c r="D29" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
+      <c r="E29" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="52"/>
+      <c r="G29" s="51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="50"/>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
+        <v>103</v>
+      </c>
+      <c r="E30" s="51"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="51"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="50"/>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
+        <v>84</v>
+      </c>
+      <c r="E31" s="51"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="51"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="50"/>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
+        <v>85</v>
+      </c>
+      <c r="E32" s="51"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="51"/>
+    </row>
+    <row r="33" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="50"/>
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="E33" s="51"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="51"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="47" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="46" t="s">
+      <c r="C35"/>
+      <c r="D35" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="52"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="50"/>
+      <c r="B36" s="51"/>
+      <c r="C36"/>
+      <c r="D36" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C35"/>
-      <c r="D35" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="46"/>
-      <c r="C36"/>
-      <c r="D36" s="5" t="s">
+      <c r="E36" s="51"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="51" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="50"/>
+      <c r="B37" s="51"/>
+      <c r="C37"/>
+      <c r="D37" s="4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
-      <c r="B37" s="46"/>
-      <c r="C37"/>
-      <c r="D37" s="5" t="s">
+      <c r="E37" s="51"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="51"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="50"/>
+      <c r="B38" s="51"/>
+      <c r="C38"/>
+      <c r="D38" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="47"/>
-      <c r="B38" s="46"/>
-      <c r="C38"/>
-      <c r="D38" s="5" t="s">
+      <c r="E38" s="51"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="51"/>
+    </row>
+    <row r="39" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="50"/>
+      <c r="B39" s="51"/>
+      <c r="C39"/>
+      <c r="D39" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
-      <c r="B39" s="46"/>
-      <c r="C39"/>
-      <c r="D39" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="51"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="51"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
@@ -1846,19 +2081,172 @@
     <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="23">
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="G3:G9"/>
+    <mergeCell ref="G11:G15"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E35:E39"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="B10:B15"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="B17:B21"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="B35:B39"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6E6EF3-3E0D-4744-87E9-82B234199516}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="31" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="50"/>
+      <c r="B4" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="51"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="50"/>
+      <c r="B5" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="51"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="50"/>
+      <c r="B6" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="51"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="50"/>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="56"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="50"/>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="56"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="50"/>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="50"/>
+      <c r="B16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="56"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="50"/>
+      <c r="B17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="56"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="50"/>
+      <c r="C18" s="56"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="50"/>
+      <c r="C19" s="56"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="C15:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Mobile/Mobile_UAT/mobileUAT.xlsx
+++ b/Mobile/Mobile_UAT/mobileUAT.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\QA\Mobile_UAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB922F6F-EAB5-4CC8-BAD7-29A97FCBF3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B83328-E4FB-4FCA-9849-1B862CBAD488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{D306577F-726B-460D-A4B8-43874F0773D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{D306577F-726B-460D-A4B8-43874F0773D9}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="18" r:id="rId1"/>
     <sheet name="test environment" sheetId="1" r:id="rId2"/>
-    <sheet name="UAT" sheetId="4" r:id="rId3"/>
-    <sheet name="report" sheetId="19" r:id="rId4"/>
+    <sheet name="testSummary" sheetId="20" r:id="rId3"/>
+    <sheet name="UAT" sheetId="4" r:id="rId4"/>
+    <sheet name="report" sheetId="19" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="138">
   <si>
     <t>Operating System</t>
   </si>
@@ -348,27 +349,9 @@
 3. The user received a response from a bot or support agent</t>
   </si>
   <si>
-    <t>The scenario failed at point 6. The checkout and payment functionality is not implemented.</t>
-  </si>
-  <si>
-    <t>The scenario failed at point 3. The scooter rental functionality is not implemented.</t>
-  </si>
-  <si>
-    <t>The scenario failed at point 1. The functionality of scheduling a service appointment is not implemented.</t>
-  </si>
-  <si>
-    <t>The scenario failed at point 1. The functionality of scheduling a test-drive appointment is not implemented.</t>
-  </si>
-  <si>
     <t>2. Select the product for which you want to create a review</t>
   </si>
   <si>
-    <t>The scenario failed at point 3. The review functionality is not implemented for all products.</t>
-  </si>
-  <si>
-    <t>The scenario failed at point 4. No response was received in the chat from either the bot or the technical support specialist</t>
-  </si>
-  <si>
     <t>The object of testing</t>
   </si>
   <si>
@@ -421,13 +404,73 @@
   </si>
   <si>
     <t>Associated business goals are not achieved. User support does not work. The bot is not implemented and there are no live specialists.</t>
+  </si>
+  <si>
+    <t>Project:</t>
+  </si>
+  <si>
+    <t>Skybot Mobile Application</t>
+  </si>
+  <si>
+    <t>Iteration:</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Tester name</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>Test enviroment</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S21</t>
+  </si>
+  <si>
+    <t>iPhone SE</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>iOS 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WiFi (500Mb), 4G/5G </t>
+  </si>
+  <si>
+    <t>11.17.2024</t>
+  </si>
+  <si>
+    <t>UAT of the Skybot Mobile Application v. 1.0</t>
+  </si>
+  <si>
+    <t>The scenario failed at point 6. The checkout and payment functionality is not implemented. https://drive.google.com/file/d/1WwAl8qcUm-om04OS6VhJpdAlCGTVg2CY/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>The scenario failed at point 3. The scooter rental functionality is not implemented. https://drive.google.com/file/d/1t4S2Z2bMXao6mBi3ILnaI_0ybKTf0zXZ/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>The scenario failed at point 1. The functionality of scheduling a service appointment is not implemented. https://drive.google.com/file/d/1CtI0dN4arWb3FW-KAGp3xiUb6UNymsps/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>The scenario failed at point 1. The functionality of scheduling a test-drive appointment is not implemented. https://drive.google.com/file/d/1CtI0dN4arWb3FW-KAGp3xiUb6UNymsps/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>The scenario failed at point 3. The review functionality is not implemented for all products. https://drive.google.com/file/d/1tls1v3TL2CUfqieT_rBTXawymyEkvuNe/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>The scenario failed at point 4. No response was received in the chat from either the bot or the technical support specialist. https://drive.google.com/file/d/1CfemwuAML4iz6MUZAc_DU_6Xk8VCuRXZ/view?usp=drive_link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,8 +531,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,8 +590,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -718,12 +788,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -807,57 +892,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -866,11 +900,87 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1252,32 +1362,32 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="45"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="41"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="43"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48"/>
     </row>
     <row r="8" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
@@ -1288,14 +1398,14 @@
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="54"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
@@ -1328,22 +1438,22 @@
       <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="45"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="45"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
@@ -1366,14 +1476,14 @@
       <c r="F16" s="22"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="51"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1562,12 +1672,156 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F103D2BF-7144-4B36-9109-D86D686FB910}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="56.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+    </row>
+    <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+    </row>
+    <row r="7" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="63"/>
+      <c r="B9" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="65"/>
+      <c r="B12" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A7:D7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C34AE5-D21C-4E0E-990E-E65CA0FA7331}">
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35:A39"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1604,160 +1858,160 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="55" t="s">
         <v>57</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="52"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="55"/>
       <c r="D3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="51"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="51" t="s">
-        <v>99</v>
+      <c r="E3" s="55"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="55" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="55"/>
       <c r="D4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="51"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="55"/>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="55"/>
       <c r="D5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="51"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="55"/>
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="B6" s="51"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="55"/>
       <c r="D6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="51"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="55"/>
     </row>
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="51"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="55"/>
       <c r="D7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="51"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="55"/>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="55"/>
       <c r="D8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="51"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="51"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="55"/>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
-      <c r="B9" s="51"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="55"/>
       <c r="D9" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="51"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="55"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="55" t="s">
         <v>64</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
-      <c r="B11" s="51"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="55"/>
       <c r="C11"/>
       <c r="D11" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="52"/>
-      <c r="G11" s="51" t="s">
-        <v>100</v>
+      <c r="F11" s="35"/>
+      <c r="G11" s="55" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
-      <c r="B12" s="51"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="55"/>
       <c r="C12"/>
       <c r="D12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="51"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="55"/>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
-      <c r="B13" s="51"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="55"/>
       <c r="C13"/>
       <c r="D13" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="51"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="55"/>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
-      <c r="B14" s="51"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="55"/>
       <c r="C14"/>
       <c r="D14" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="51"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="55"/>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
-      <c r="B15" s="51"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="55"/>
       <c r="C15"/>
       <c r="D15" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="51"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="55"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16"/>
@@ -1765,67 +2019,67 @@
       <c r="D16"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="55" t="s">
         <v>69</v>
       </c>
       <c r="C17"/>
       <c r="D17" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="51" t="s">
+      <c r="E17" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="55"/>
-      <c r="G17" s="51" t="s">
-        <v>101</v>
+      <c r="F17" s="38"/>
+      <c r="G17" s="55" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
-      <c r="B18" s="51"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="55"/>
       <c r="C18"/>
       <c r="D18" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="51"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="51"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="55"/>
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="55"/>
       <c r="C19"/>
       <c r="D19" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="51"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="51"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="55"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="55"/>
       <c r="C20"/>
       <c r="D20" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="51"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="55"/>
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="51"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="55"/>
       <c r="C21"/>
       <c r="D21" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="51"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="51"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="55"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22"/>
@@ -1833,67 +2087,67 @@
       <c r="D22"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="55" t="s">
         <v>73</v>
       </c>
       <c r="C23"/>
       <c r="D23" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="51" t="s">
+      <c r="E23" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="F23" s="55"/>
-      <c r="G23" s="51" t="s">
-        <v>102</v>
+      <c r="F23" s="38"/>
+      <c r="G23" s="55" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
-      <c r="B24" s="51"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="55"/>
       <c r="C24"/>
       <c r="D24" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="51"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="51"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="55"/>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="51"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="55"/>
       <c r="C25"/>
       <c r="D25" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="51"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="51"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="55"/>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="B26" s="51"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="55"/>
       <c r="C26"/>
       <c r="D26" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="51"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="51"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="55"/>
     </row>
     <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
-      <c r="B27" s="51"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="55"/>
       <c r="C27"/>
       <c r="D27" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="51"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="51"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="55"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28"/>
@@ -1901,7 +2155,7 @@
       <c r="D28"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="56" t="s">
         <v>83</v>
       </c>
       <c r="B29"/>
@@ -1909,57 +2163,57 @@
       <c r="D29" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="51" t="s">
+      <c r="E29" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="F29" s="52"/>
-      <c r="G29" s="51" t="s">
-        <v>104</v>
+      <c r="F29" s="35"/>
+      <c r="G29" s="55" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
+      <c r="A30" s="56"/>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E30" s="51"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="51"/>
+        <v>99</v>
+      </c>
+      <c r="E30" s="55"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="55"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
+      <c r="A31" s="56"/>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="51"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="51"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="55"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
+      <c r="A32" s="56"/>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E32" s="51"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="51"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="55"/>
     </row>
     <row r="33" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="50"/>
+      <c r="A33" s="56"/>
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E33" s="51"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="51"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="55"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34"/>
@@ -1967,66 +2221,66 @@
       <c r="D34"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="50" t="s">
+      <c r="A35" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="55" t="s">
         <v>88</v>
       </c>
       <c r="C35"/>
       <c r="D35" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E35" s="51" t="s">
+      <c r="E35" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="F35" s="52"/>
+      <c r="F35" s="35"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="50"/>
-      <c r="B36" s="51"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="55"/>
       <c r="C36"/>
       <c r="D36" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E36" s="51"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="51" t="s">
-        <v>105</v>
+      <c r="E36" s="55"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="55" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="50"/>
-      <c r="B37" s="51"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="55"/>
       <c r="C37"/>
       <c r="D37" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E37" s="51"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="51"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="55"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="50"/>
-      <c r="B38" s="51"/>
+      <c r="A38" s="56"/>
+      <c r="B38" s="55"/>
       <c r="C38"/>
       <c r="D38" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="51"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="51"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="55"/>
     </row>
     <row r="39" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="50"/>
-      <c r="B39" s="51"/>
+      <c r="A39" s="56"/>
+      <c r="B39" s="55"/>
       <c r="C39"/>
       <c r="D39" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="51"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="51"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="55"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40"/>
@@ -2082,22 +2336,6 @@
     <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="G3:G9"/>
-    <mergeCell ref="G11:G15"/>
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="E2:E9"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="E29:E33"/>
     <mergeCell ref="E35:E39"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="B2:B9"/>
@@ -2105,12 +2343,28 @@
     <mergeCell ref="B10:B15"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="B17:B21"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="G3:G9"/>
+    <mergeCell ref="G11:G15"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="G29:G33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6E6EF3-3E0D-4744-87E9-82B234199516}">
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -2128,125 +2382,125 @@
   <sheetData>
     <row r="1" spans="1:3" s="31" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="56"/>
+      <c r="B4" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="55"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="56"/>
+      <c r="B5" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="55"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="56"/>
+      <c r="B6" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="31" t="s">
+      <c r="C6" s="55"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="56" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="57" t="s">
+      <c r="B8" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C8" s="57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="56"/>
+      <c r="B9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="57"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="56"/>
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="57"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="57" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="51"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
-      <c r="B5" s="57" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="51"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="B6" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="51"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="56"/>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
         <v>114</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C15" s="57" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="56"/>
+      <c r="B16" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="56" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
-      <c r="B9" t="s">
+      <c r="C16" s="57"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="56"/>
+      <c r="B17" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="56"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
-      <c r="B10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="56"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
-    </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="56" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
-      <c r="B16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C16" s="56"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
-      <c r="B17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="56"/>
+      <c r="C17" s="57"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
-      <c r="C18" s="56"/>
+      <c r="A18" s="56"/>
+      <c r="C18" s="57"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="C19" s="56"/>
+      <c r="A19" s="56"/>
+      <c r="C19" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="C15:C19"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="C15:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Mobile/Mobile_UAT/mobileUAT.xlsx
+++ b/Mobile/Mobile_UAT/mobileUAT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\QA\Mobile_UAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B83328-E4FB-4FCA-9849-1B862CBAD488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BAB9EB-479D-4932-A74B-BDB9635234ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{D306577F-726B-460D-A4B8-43874F0773D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{D306577F-726B-460D-A4B8-43874F0773D9}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="18" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="141">
   <si>
     <t>Operating System</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>Test Case Title</t>
   </si>
   <si>
     <t>Steps</t>
@@ -464,13 +461,25 @@
   </si>
   <si>
     <t>The scenario failed at point 4. No response was received in the chat from either the bot or the technical support specialist. https://drive.google.com/file/d/1CfemwuAML4iz6MUZAc_DU_6Xk8VCuRXZ/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">app installer - https://www.mobileapp.app/to/2N7CNgU?ref=mam </t>
+  </si>
+  <si>
+    <t>Scenarios Title</t>
+  </si>
+  <si>
+    <t>log - teststuffjohndoe@gmail.com</t>
+  </si>
+  <si>
+    <t>pas - qwerty123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,6 +555,11 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Google Sans"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -808,7 +822,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -903,85 +917,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1329,67 +1344,67 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="16" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A3" s="13" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>26</v>
       </c>
       <c r="B3" s="14">
         <v>45535</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48"/>
-    </row>
-    <row r="8" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A5" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="45"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1">
+      <c r="A6" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="48"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A7" s="49"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -1397,19 +1412,19 @@
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="54"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A9" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="57"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -1417,9 +1432,9 @@
       <c r="E10" s="11"/>
       <c r="F10" s="20"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -1427,9 +1442,9 @@
       <c r="E11" s="11"/>
       <c r="F11" s="20"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -1437,27 +1452,27 @@
       <c r="E12" s="11"/>
       <c r="F12" s="20"/>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+    <row r="13" spans="1:6" ht="15" customHeight="1">
+      <c r="A13" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="48"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="46"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="48"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="45"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>31</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -1465,9 +1480,9 @@
       <c r="E15" s="11"/>
       <c r="F15" s="20"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -1475,95 +1490,95 @@
       <c r="E16" s="12"/>
       <c r="F16" s="22"/>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="49" t="s">
+    <row r="17" spans="1:6" ht="15" customHeight="1" thickBot="1">
+      <c r="A17" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="54"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="19" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A19" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="51"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="B22" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A28" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="28" t="s">
+      <c r="B28" s="29" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1599,14 +1614,14 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="41.140625" customWidth="1"/>
     <col min="2" max="2" width="39.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" ht="24">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1614,12 +1629,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="24" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="24">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1627,12 +1642,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="24" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="24">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1640,12 +1655,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="24" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" ht="24">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1653,12 +1668,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="24" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" ht="24">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -1679,126 +1694,126 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="25.140625" customWidth="1"/>
     <col min="4" max="4" width="56.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+    <row r="1" spans="1:4" ht="26.25">
+      <c r="A1" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="B3" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+    </row>
+    <row r="4" spans="1:4" ht="26.25">
+      <c r="A4" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-    </row>
-    <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+      <c r="B4" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+      <c r="B5" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+    </row>
+    <row r="7" spans="1:4" ht="26.25">
+      <c r="A7" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-    </row>
-    <row r="7" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="62" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="64" t="s">
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="58"/>
+      <c r="B9" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
-      <c r="B9" s="64" t="s">
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="65" t="s">
+      <c r="B11" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="59"/>
+      <c r="B12" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
-      <c r="B12" s="64" t="s">
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="64" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1819,12 +1834,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C34AE5-D21C-4E0E-990E-E65CA0FA7331}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="2" width="51.28515625" style="3" customWidth="1"/>
@@ -1834,18 +1849,18 @@
     <col min="7" max="7" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="34" customFormat="1" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="34" customFormat="1" ht="24">
       <c r="A1" s="30" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1" s="32" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="33" t="s">
         <v>13</v>
@@ -1857,485 +1872,501 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="D2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="35"/>
+    </row>
+    <row r="3" spans="1:7" ht="30">
+      <c r="A3" s="65"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="35"/>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="55"/>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="64"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="64" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30">
+      <c r="A4" s="65"/>
+      <c r="B4" s="64"/>
+      <c r="D4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="55" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="55"/>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="64"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="64"/>
+    </row>
+    <row r="5" spans="1:7" ht="30">
+      <c r="A5" s="65"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="55"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="55"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="55"/>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="64"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="64"/>
+    </row>
+    <row r="6" spans="1:7" ht="45">
+      <c r="A6" s="65"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="55"/>
-    </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
-      <c r="B6" s="55"/>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="64"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="64"/>
+    </row>
+    <row r="7" spans="1:7" ht="45">
+      <c r="A7" s="65"/>
+      <c r="B7" s="64"/>
+      <c r="D7" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="55"/>
-    </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
-      <c r="B7" s="55"/>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="64"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="64"/>
+    </row>
+    <row r="8" spans="1:7" ht="30">
+      <c r="A8" s="65"/>
+      <c r="B8" s="64"/>
+      <c r="D8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="64"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="64"/>
+    </row>
+    <row r="9" spans="1:7" ht="30">
+      <c r="A9" s="65"/>
+      <c r="B9" s="64"/>
+      <c r="D9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="64"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="64"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1">
+      <c r="A10" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="55"/>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
-      <c r="B8" s="55"/>
-      <c r="D8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="55"/>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
-      <c r="B9" s="55"/>
-      <c r="D9" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="55"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+      <c r="B10" s="64" t="s">
         <v>63</v>
-      </c>
-      <c r="B10" s="55" t="s">
-        <v>64</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
-      <c r="B11" s="55"/>
+    <row r="11" spans="1:7" ht="15" customHeight="1">
+      <c r="A11" s="65"/>
+      <c r="B11" s="64"/>
       <c r="C11"/>
       <c r="D11" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="55" t="s">
-        <v>94</v>
+        <v>65</v>
+      </c>
+      <c r="E11" s="64" t="s">
+        <v>93</v>
       </c>
       <c r="F11" s="35"/>
-      <c r="G11" s="55" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
-      <c r="B12" s="55"/>
+      <c r="G11" s="64" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30">
+      <c r="A12" s="65"/>
+      <c r="B12" s="64"/>
       <c r="C12"/>
       <c r="D12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="55"/>
+        <v>66</v>
+      </c>
+      <c r="E12" s="64"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="55"/>
-    </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
-      <c r="B13" s="55"/>
+      <c r="G12" s="64"/>
+    </row>
+    <row r="13" spans="1:7" ht="30">
+      <c r="A13" s="65"/>
+      <c r="B13" s="64"/>
       <c r="C13"/>
       <c r="D13" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="55"/>
+        <v>73</v>
+      </c>
+      <c r="E13" s="64"/>
       <c r="F13" s="38"/>
-      <c r="G13" s="55"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
-      <c r="B14" s="55"/>
+      <c r="G13" s="64"/>
+    </row>
+    <row r="14" spans="1:7" ht="30">
+      <c r="A14" s="65"/>
+      <c r="B14" s="64"/>
       <c r="C14"/>
       <c r="D14" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="55"/>
+        <v>74</v>
+      </c>
+      <c r="E14" s="64"/>
       <c r="F14" s="38"/>
-      <c r="G14" s="55"/>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
-      <c r="B15" s="55"/>
+      <c r="G14" s="64"/>
+    </row>
+    <row r="15" spans="1:7" ht="30">
+      <c r="A15" s="65"/>
+      <c r="B15" s="64"/>
       <c r="C15"/>
       <c r="D15" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="55"/>
+        <v>75</v>
+      </c>
+      <c r="E15" s="64"/>
       <c r="F15" s="38"/>
-      <c r="G15" s="55"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="64"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="56" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="64" t="s">
         <v>68</v>
-      </c>
-      <c r="B17" s="55" t="s">
-        <v>69</v>
       </c>
       <c r="C17"/>
       <c r="D17" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="55" t="s">
-        <v>95</v>
+        <v>69</v>
+      </c>
+      <c r="E17" s="64" t="s">
+        <v>94</v>
       </c>
       <c r="F17" s="38"/>
-      <c r="G17" s="55" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
-      <c r="B18" s="55"/>
+      <c r="G17" s="64" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30">
+      <c r="A18" s="65"/>
+      <c r="B18" s="64"/>
       <c r="C18"/>
       <c r="D18" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="55"/>
+        <v>70</v>
+      </c>
+      <c r="E18" s="64"/>
       <c r="F18" s="38"/>
-      <c r="G18" s="55"/>
-    </row>
-    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
-      <c r="B19" s="55"/>
+      <c r="G18" s="64"/>
+    </row>
+    <row r="19" spans="1:7" ht="45">
+      <c r="A19" s="65"/>
+      <c r="B19" s="64"/>
       <c r="C19"/>
       <c r="D19" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="55"/>
+        <v>78</v>
+      </c>
+      <c r="E19" s="64"/>
       <c r="F19" s="38"/>
-      <c r="G19" s="55"/>
-    </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
-      <c r="B20" s="55"/>
+      <c r="G19" s="64"/>
+    </row>
+    <row r="20" spans="1:7" ht="30">
+      <c r="A20" s="65"/>
+      <c r="B20" s="64"/>
       <c r="C20"/>
       <c r="D20" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="55"/>
+        <v>79</v>
+      </c>
+      <c r="E20" s="64"/>
       <c r="F20" s="38"/>
-      <c r="G20" s="55"/>
-    </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
-      <c r="B21" s="55"/>
+      <c r="G20" s="64"/>
+    </row>
+    <row r="21" spans="1:7" ht="30">
+      <c r="A21" s="65"/>
+      <c r="B21" s="64"/>
       <c r="C21"/>
       <c r="D21" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="55"/>
+        <v>80</v>
+      </c>
+      <c r="E21" s="64"/>
       <c r="F21" s="38"/>
-      <c r="G21" s="55"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="64"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="56" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="64" t="s">
         <v>72</v>
-      </c>
-      <c r="B23" s="55" t="s">
-        <v>73</v>
       </c>
       <c r="C23"/>
       <c r="D23" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="55" t="s">
-        <v>96</v>
+        <v>69</v>
+      </c>
+      <c r="E23" s="64" t="s">
+        <v>95</v>
       </c>
       <c r="F23" s="38"/>
-      <c r="G23" s="55" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
-      <c r="B24" s="55"/>
+      <c r="G23" s="64" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30">
+      <c r="A24" s="65"/>
+      <c r="B24" s="64"/>
       <c r="C24"/>
       <c r="D24" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="55"/>
+        <v>81</v>
+      </c>
+      <c r="E24" s="64"/>
       <c r="F24" s="38"/>
-      <c r="G24" s="55"/>
-    </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
-      <c r="B25" s="55"/>
+      <c r="G24" s="64"/>
+    </row>
+    <row r="25" spans="1:7" ht="30">
+      <c r="A25" s="65"/>
+      <c r="B25" s="64"/>
       <c r="C25"/>
       <c r="D25" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="55"/>
+        <v>73</v>
+      </c>
+      <c r="E25" s="64"/>
       <c r="F25" s="38"/>
-      <c r="G25" s="55"/>
-    </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
-      <c r="B26" s="55"/>
+      <c r="G25" s="64"/>
+    </row>
+    <row r="26" spans="1:7" ht="30">
+      <c r="A26" s="65"/>
+      <c r="B26" s="64"/>
       <c r="C26"/>
       <c r="D26" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="55"/>
+        <v>79</v>
+      </c>
+      <c r="E26" s="64"/>
       <c r="F26" s="38"/>
-      <c r="G26" s="55"/>
-    </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
-      <c r="B27" s="55"/>
+      <c r="G26" s="64"/>
+    </row>
+    <row r="27" spans="1:7" ht="30">
+      <c r="A27" s="65"/>
+      <c r="B27" s="64"/>
       <c r="C27"/>
       <c r="D27" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="55"/>
+        <v>80</v>
+      </c>
+      <c r="E27" s="64"/>
       <c r="F27" s="38"/>
-      <c r="G27" s="55"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="64"/>
+    </row>
+    <row r="28" spans="1:7">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="56" t="s">
-        <v>83</v>
+    <row r="29" spans="1:7">
+      <c r="A29" s="65" t="s">
+        <v>82</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="55" t="s">
-        <v>97</v>
+        <v>69</v>
+      </c>
+      <c r="E29" s="64" t="s">
+        <v>96</v>
       </c>
       <c r="F29" s="35"/>
-      <c r="G29" s="55" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
+      <c r="G29" s="64" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="65"/>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E30" s="55"/>
+        <v>98</v>
+      </c>
+      <c r="E30" s="64"/>
       <c r="F30" s="35"/>
-      <c r="G30" s="55"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
+      <c r="G30" s="64"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="65"/>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" s="55"/>
+        <v>83</v>
+      </c>
+      <c r="E31" s="64"/>
       <c r="F31" s="38"/>
-      <c r="G31" s="55"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
+      <c r="G31" s="64"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="65"/>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E32" s="55"/>
+        <v>84</v>
+      </c>
+      <c r="E32" s="64"/>
       <c r="F32" s="38"/>
-      <c r="G32" s="55"/>
-    </row>
-    <row r="33" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
+      <c r="G32" s="64"/>
+    </row>
+    <row r="33" spans="1:7" ht="81.75" customHeight="1">
+      <c r="A33" s="65"/>
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E33" s="55"/>
+        <v>85</v>
+      </c>
+      <c r="E33" s="64"/>
       <c r="F33" s="38"/>
-      <c r="G33" s="55"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G33" s="64"/>
+    </row>
+    <row r="34" spans="1:7">
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="56" t="s">
+    <row r="35" spans="1:7">
+      <c r="A35" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="64" t="s">
         <v>87</v>
-      </c>
-      <c r="B35" s="55" t="s">
-        <v>88</v>
       </c>
       <c r="C35"/>
       <c r="D35" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="55" t="s">
-        <v>98</v>
+        <v>69</v>
+      </c>
+      <c r="E35" s="64" t="s">
+        <v>97</v>
       </c>
       <c r="F35" s="35"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
-      <c r="B36" s="55"/>
+    <row r="36" spans="1:7">
+      <c r="A36" s="65"/>
+      <c r="B36" s="64"/>
       <c r="C36"/>
       <c r="D36" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36" s="55"/>
+        <v>88</v>
+      </c>
+      <c r="E36" s="64"/>
       <c r="F36" s="35"/>
-      <c r="G36" s="55" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
-      <c r="B37" s="55"/>
+      <c r="G36" s="64" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="65"/>
+      <c r="B37" s="64"/>
       <c r="C37"/>
       <c r="D37" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="55"/>
+        <v>89</v>
+      </c>
+      <c r="E37" s="64"/>
       <c r="F37" s="35"/>
-      <c r="G37" s="55"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
-      <c r="B38" s="55"/>
+      <c r="G37" s="64"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="65"/>
+      <c r="B38" s="64"/>
       <c r="C38"/>
       <c r="D38" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E38" s="55"/>
+        <v>90</v>
+      </c>
+      <c r="E38" s="64"/>
       <c r="F38" s="38"/>
-      <c r="G38" s="55"/>
-    </row>
-    <row r="39" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="56"/>
-      <c r="B39" s="55"/>
+      <c r="G38" s="64"/>
+    </row>
+    <row r="39" spans="1:7" ht="69.75" customHeight="1">
+      <c r="A39" s="65"/>
+      <c r="B39" s="64"/>
       <c r="C39"/>
       <c r="D39" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E39" s="55"/>
+        <v>91</v>
+      </c>
+      <c r="E39" s="64"/>
       <c r="F39" s="38"/>
-      <c r="G39" s="55"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G39" s="64"/>
+    </row>
+    <row r="40" spans="1:7">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
     </row>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" customFormat="1"/>
+    <row r="50" customFormat="1"/>
+    <row r="51" customFormat="1"/>
+    <row r="52" customFormat="1"/>
+    <row r="53" customFormat="1"/>
+    <row r="54" customFormat="1"/>
+    <row r="55" customFormat="1"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="G3:G9"/>
+    <mergeCell ref="G11:G15"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="G29:G33"/>
     <mergeCell ref="E35:E39"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="B2:B9"/>
@@ -2352,13 +2383,6 @@
     <mergeCell ref="B23:B27"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A35:A39"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="G3:G9"/>
-    <mergeCell ref="G11:G15"/>
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="G29:G33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2368,129 +2392,129 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6E6EF3-3E0D-4744-87E9-82B234199516}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38.28515625" customWidth="1"/>
     <col min="2" max="2" width="48.5703125" customWidth="1"/>
     <col min="3" max="3" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="31" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="31" customFormat="1" ht="24">
       <c r="A1" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="C1" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="31" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A3" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="39" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="39" t="s">
+      <c r="C3" s="66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="65"/>
+      <c r="B4" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C4" s="64"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="65"/>
+      <c r="B5" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="64"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="65"/>
+      <c r="B6" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="64"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="65" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="55"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="55"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
-      <c r="B6" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="55"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
+      <c r="B8" t="s">
         <v>108</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="66" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="65"/>
+      <c r="B9" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C9" s="66"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="65"/>
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="66"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
-      <c r="B9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="57"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
-      <c r="B10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="57"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="65"/>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1">
+      <c r="A15" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
-    </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C15" s="66" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="65"/>
+      <c r="B16" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="57" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
-      <c r="B16" t="s">
+      <c r="C16" s="66"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="65"/>
+      <c r="B17" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="57"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
-      <c r="B17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="57"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
-      <c r="C18" s="57"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
-      <c r="C19" s="57"/>
+      <c r="C17" s="66"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="65"/>
+      <c r="C18" s="66"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="65"/>
+      <c r="C19" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="7">
